--- a/data/trans_dic/P12A1_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación 16-59 años</t>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,02; 60,91</t>
+          <t>4,87; 9,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,93; 57,93</t>
+          <t>4,55; 8,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,42; 55,8</t>
+          <t>4,26; 7,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,42; 64,75</t>
+          <t>5,59; 10,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,18; 46,34</t>
+          <t>10,09; 15,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,28; 43,64</t>
+          <t>8,8; 13,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,19; 43,87</t>
+          <t>3,35; 6,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,19; 56,61</t>
+          <t>4,02; 7,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,33; 49,75</t>
+          <t>3,67; 6,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,82; 47,02</t>
+          <t>5,91; 10,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,98; 47,05</t>
+          <t>7,79; 11,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,26; 58,56</t>
+          <t>8,75; 12,85</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 7,08</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 7,08</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 6,57</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 9,65</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 12,84</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,14; 12,44</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>57,11%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,14%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,63%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>54,25%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,93; 69,7</t>
+          <t>5,28; 9,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,42; 75,08</t>
+          <t>6,47; 11,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,57; 71,02</t>
+          <t>6,14; 11,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,04; 75,12</t>
+          <t>4,41; 9,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,19; 60,52</t>
+          <t>7,6; 17,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,36; 51,17</t>
+          <t>7,19; 15,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,91; 61,45</t>
+          <t>6,68; 11,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 57,1</t>
+          <t>4,51; 8,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,02; 60,33</t>
+          <t>6,56; 11,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45,25; 60,22</t>
+          <t>6,09; 10,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,55; 61,83</t>
+          <t>5,01; 12,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,17; 62,24</t>
+          <t>5,45; 12,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 9,77</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 8,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 10,39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 9,27</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 13,28</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 12,5</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>23,38%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>31,79%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>37,35%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>24,89%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,89; 78,93</t>
+          <t>0,93; 8,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 49,67</t>
+          <t>3,54; 11,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,71; 43,86</t>
+          <t>3,32; 11,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,62; 10,39</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,89; 46,02</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,25; 66,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,91; 40,36</t>
+          <t>1,22; 8,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>4,07; 11,89</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 7,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 13,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>15,49; 56,03</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>24,71; 52,75</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>15,34; 38,09</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 6,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 9,76</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 8,19</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 10,08</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,3; 59,78</t>
+          <t>5,23; 8,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,66; 58,57</t>
+          <t>5,86; 8,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,38; 53,48</t>
+          <t>5,69; 8,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,31; 64,91</t>
+          <t>5,36; 8,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,04; 47,81</t>
+          <t>10,31; 15,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,51; 45,52</t>
+          <t>9,02; 13,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,27; 46,99</t>
+          <t>4,94; 7,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,23; 54,47</t>
+          <t>4,85; 7,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,32; 50,83</t>
+          <t>5,19; 7,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,2; 49,95</t>
+          <t>6,61; 9,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,33; 48,02</t>
+          <t>7,65; 11,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,01; 57,59</t>
+          <t>8,52; 11,95</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 7,32</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 7,55</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 7,73</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 8,65</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 12,4</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 11,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>112554</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103733</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>97145</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>126627</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>29467</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24991</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>83685</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>99159</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>90883</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>143710</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22706</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24969</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>196239</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>202892</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>188028</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>270336</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>52172</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>49960</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>80402; 150213</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>74848; 137977</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>69801; 129902</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>91501; 169700</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23164; 35395</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20041; 30938</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60682; 117030</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73592; 129498</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66762; 121728</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>105873; 186579</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18523; 27575</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20598; 30276</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>155913; 244954</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>163966; 245943</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>150542; 227328</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>218404; 330831</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>44819; 60002</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>42360; 57640</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>99736</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>119081</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>118361</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>90769</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8132</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7891</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>122224</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83533</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>119434</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>113285</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5204</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5546</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>221960</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>202614</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>237795</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>204054</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>13336</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13437</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72548; 137262</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>89202; 155777</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>84688; 164796</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60573; 131347</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5476; 12350</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5228; 11245</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92726; 157282</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>62025; 112387</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>90513; 153229</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>84968; 151062</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3288; 8141</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3622; 8575</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>178533; 270061</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>166041; 246863</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>197208; 286778</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>163735; 256379</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>9784; 18272</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10068; 17395</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13949</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26674</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27726</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19222</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14798</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29832</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16242</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31791</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>28747</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>56506</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>43968</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>51013</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3908; 36639</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14809; 49380</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14032; 49096</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6736; 43314</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5007; 33042</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16660; 48714</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7248; 29852</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16130; 56510</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13918; 54545</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>36103; 80834</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>27839; 68396</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>31045; 83538</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>226240</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>249488</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>243232</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>236617</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>37599</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>32882</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>220706</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>212524</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>226559</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>288786</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27909</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>30515</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>446946</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>462012</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>469791</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>525403</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>65508</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>63397</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>180122; 281017</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>201621; 300187</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>196014; 300883</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>183522; 293769</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31099; 45753</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27103; 39778</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>178233; 268548</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>175372; 254208</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>187361; 275132</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>238033; 350915</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23199; 33767</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25728; 36078</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>381807; 516191</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>402068; 532921</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>408564; 545369</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>452600; 607505</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>57375; 75026</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>56089; 71477</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
